--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -32,7 +32,22 @@
     <t>2022-10-02 15:01:56</t>
   </si>
   <si>
-    <t>all</t>
+    <t>CALM</t>
+  </si>
+  <si>
+    <t>2022-10-07 17:43:34</t>
+  </si>
+  <si>
+    <t>Сопка</t>
+  </si>
+  <si>
+    <t>2022-10-07 17:44:02</t>
+  </si>
+  <si>
+    <t>2022-10-07 17:44:29</t>
+  </si>
+  <si>
+    <t>2022-10-08 10:00:01</t>
   </si>
   <si>
     <t>2022-10-13 10:00:02</t>
@@ -44,43 +59,34 @@
     <t>2022-10-18 14:00:02</t>
   </si>
   <si>
-    <t>2022-10-20 14:00:01</t>
-  </si>
-  <si>
-    <t>2022-10-28 10:00:01</t>
-  </si>
-  <si>
-    <t>2022-10-28 14:00:02</t>
-  </si>
-  <si>
     <t>2022-10-43 14:00:02</t>
   </si>
   <si>
-    <t>2022-11-01 10:00:02</t>
-  </si>
-  <si>
     <t>2022-11-02 10:00:02</t>
   </si>
   <si>
-    <t>2022-11-04 10:00:01</t>
-  </si>
-  <si>
-    <t>2022-11-10 10:00:02</t>
-  </si>
-  <si>
-    <t>2022-11-13 10:00:02</t>
-  </si>
-  <si>
-    <t>2022-11-16 10:00:01</t>
-  </si>
-  <si>
-    <t>2022-11-19 10:00:02</t>
+    <t>2022-11-10 13:19:53</t>
+  </si>
+  <si>
+    <t>2022-11-12 14:00:01</t>
+  </si>
+  <si>
+    <t>2022-11-14 14:00:02</t>
+  </si>
+  <si>
+    <t>2022-11-15 15:20:49</t>
+  </si>
+  <si>
+    <t>2022-11-15 15:24:03</t>
+  </si>
+  <si>
+    <t>2022-11-16 14:00:02</t>
   </si>
   <si>
     <t>2022-11-30 10:00:01</t>
   </si>
   <si>
-    <t>2022-12-05 09:12:17</t>
+    <t>2022-12-04 14:00:02</t>
   </si>
   <si>
     <t>2022-12-05 10:00:01</t>
@@ -92,99 +98,30 @@
     <t>2022-12-13 10:00:02</t>
   </si>
   <si>
-    <t>2022-12-21 14:00:02</t>
-  </si>
-  <si>
-    <t>2022-12-23 10:00:01</t>
-  </si>
-  <si>
-    <t>2022-12-24 14:00:01</t>
-  </si>
-  <si>
-    <t>2023-01-01 10:00:02</t>
-  </si>
-  <si>
-    <t>2023-01-01 14:00:02</t>
-  </si>
-  <si>
-    <t>2023-01-02 10:00:02</t>
-  </si>
-  <si>
-    <t>2023-01-02 14:00:02</t>
-  </si>
-  <si>
-    <t>2023-01-31 10:00:02</t>
-  </si>
-  <si>
-    <t>2023-02-01 14:00:02</t>
-  </si>
-  <si>
-    <t>2023-02-13 14:00:02</t>
-  </si>
-  <si>
-    <t>2023-02-14 10:00:01</t>
+    <t>2023-02-07 10:00:01</t>
+  </si>
+  <si>
+    <t>2023-02-18 14:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 10:00:02</t>
   </si>
   <si>
     <t>2023-03-05 14:00:02</t>
   </si>
   <si>
+    <t>2023-03-07 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-03-14 14:00:01</t>
+  </si>
+  <si>
     <t>2023-03-15 14:00:02</t>
   </si>
   <si>
     <t>2023-03-16 14:00:01</t>
   </si>
   <si>
-    <t>2023-03-18 14:00:01</t>
-  </si>
-  <si>
-    <t>2023-03-21 19:14:30</t>
-  </si>
-  <si>
-    <t>2023-03-26 14:00:02</t>
-  </si>
-  <si>
-    <t>2023-03-28 14:00:01</t>
-  </si>
-  <si>
-    <t>2023-03-28 14:00:02</t>
-  </si>
-  <si>
-    <t>2023-04-01 14:00:02</t>
-  </si>
-  <si>
-    <t>2023-04-04 10:00:02</t>
-  </si>
-  <si>
-    <t>2023-04-09 14:00:01</t>
-  </si>
-  <si>
-    <t>2023-04-16 10:00:01</t>
-  </si>
-  <si>
-    <t>2023-04-2/ 14:00:01</t>
-  </si>
-  <si>
-    <t>2023-04-26 10:00:02</t>
-  </si>
-  <si>
-    <t>2023-05-15 14:00:01</t>
-  </si>
-  <si>
-    <t>2023-05-16 14:00:01</t>
-  </si>
-  <si>
-    <t>2023-05-17 10:00:01</t>
-  </si>
-  <si>
-    <t>2023-05-18 10:00:02</t>
-  </si>
-  <si>
-    <t>2023-05-19 14:00:02</t>
-  </si>
-  <si>
-    <t>2023-05-20 10:00:01</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -221,22 +158,13 @@
     <t>12</t>
   </si>
   <si>
-    <t>01</t>
+    <t>02</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
     <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
   </si>
 </sst>
 </file>
@@ -568,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>-999</v>
+        <v>271.3306796997027</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -604,58 +532,58 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>18.72846226839135</v>
+        <v>20.99911582670203</v>
       </c>
       <c r="D3">
-        <v>-8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>12.4856415122609</v>
+        <v>21.22015915119363</v>
       </c>
       <c r="D4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5.119113020026969</v>
+        <v>21.66224580017683</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>-999</v>
+        <v>20.11494252873563</v>
       </c>
       <c r="D6">
-        <v>-9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -663,13 +591,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>-999</v>
+        <v>12.59132362573689</v>
       </c>
       <c r="D7">
-        <v>-23</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -677,10 +605,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>-999</v>
+        <v>15.17406722940912</v>
       </c>
       <c r="D8">
         <v>-4</v>
@@ -691,13 +619,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>2.49712830245218</v>
+        <v>-0.8641104449035119</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -705,13 +633,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>-999</v>
+        <v>5.384346436241946</v>
       </c>
       <c r="D10">
-        <v>-25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -719,10 +647,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>19.60245717424961</v>
+        <v>22.14924329454073</v>
       </c>
       <c r="D11">
         <v>-27</v>
@@ -733,13 +661,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>-999</v>
+        <v>44.17611507916688</v>
       </c>
       <c r="D12">
-        <v>-20</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -747,13 +675,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>-999</v>
+        <v>20.36831762986849</v>
       </c>
       <c r="D13">
-        <v>-36</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -761,55 +689,55 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>-999</v>
+        <v>19.01042978787726</v>
       </c>
       <c r="D14">
-        <v>-40</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>-999</v>
+        <v>30.06189213085765</v>
       </c>
       <c r="D15">
-        <v>-26</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>-999</v>
+        <v>29.84084880636605</v>
       </c>
       <c r="D16">
-        <v>-40</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>-999</v>
+        <v>27.40937223695844</v>
       </c>
       <c r="D17">
-        <v>-38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -817,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>39.20491434849923</v>
+        <v>32.83619690633345</v>
       </c>
       <c r="D18">
         <v>-27</v>
@@ -828,24 +756,24 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>-999</v>
       </c>
       <c r="D19">
-        <v>-40</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>-999</v>
@@ -856,10 +784,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>-999</v>
@@ -870,10 +798,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>-999</v>
@@ -887,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>-999</v>
+        <v>66.08061535387843</v>
       </c>
       <c r="D23">
-        <v>-9</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -901,13 +829,13 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>56.31024322029666</v>
+        <v>67.54907347285351</v>
       </c>
       <c r="D24">
-        <v>-24</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -915,13 +843,13 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>-999</v>
+        <v>69.01753159182859</v>
       </c>
       <c r="D25">
-        <v>-26</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -929,13 +857,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>-999</v>
+        <v>66.93721592328056</v>
       </c>
       <c r="D26">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -943,13 +871,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>-999</v>
+        <v>66.93721592328056</v>
       </c>
       <c r="D27">
-        <v>-40</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -957,13 +885,13 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>-999</v>
+        <v>64.85690025473254</v>
       </c>
       <c r="D28">
-        <v>-40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -971,13 +899,13 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>-999</v>
+        <v>65.71350082413466</v>
       </c>
       <c r="D29">
-        <v>-40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -985,335 +913,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>65.92418718473755</v>
+        <v>64.61215723490335</v>
       </c>
       <c r="D30">
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>62.92763322179493</v>
-      </c>
-      <c r="D31">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32">
-        <v>-999</v>
-      </c>
-      <c r="D32">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33">
-        <v>-999</v>
-      </c>
-      <c r="D33">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>65.29990510912451</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>64.05134095789842</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36">
-        <v>62.92763322179493</v>
-      </c>
-      <c r="D36">
         <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37">
-        <v>64.42591020326624</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>-999</v>
-      </c>
-      <c r="D38">
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39">
-        <v>66.04904359986016</v>
-      </c>
-      <c r="D39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40">
-        <v>-999</v>
-      </c>
-      <c r="D40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41">
-        <v>-999</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42">
-        <v>65.67447435449233</v>
-      </c>
-      <c r="D42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43">
-        <v>65.54961793936972</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44">
-        <v>64.30105378814363</v>
-      </c>
-      <c r="D44">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45">
-        <v>59.30679718323928</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46">
-        <v>61.42935624032363</v>
-      </c>
-      <c r="D46">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47">
-        <v>60.18079208909754</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48">
-        <v>12.23592868201568</v>
-      </c>
-      <c r="D48">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49">
-        <v>15.35733906008091</v>
-      </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50">
-        <v>14.98276981471308</v>
-      </c>
-      <c r="D50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>14.10877490885482</v>
-      </c>
-      <c r="D51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52">
-        <v>14.73305698446786</v>
-      </c>
-      <c r="D52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53">
-        <v>13.8590620786096</v>
-      </c>
-      <c r="D53">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +929,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1334,28 +940,28 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1363,28 +969,28 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>-192.0339309793737</v>
+        <v>43.0680855392217</v>
       </c>
       <c r="E2">
-        <v>-3.5</v>
+        <v>-0.7777777777777778</v>
       </c>
       <c r="F2">
-        <v>18.72846226839135</v>
+        <v>271.3306796997027</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>-999</v>
+        <v>-0.8641104449035119</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1392,28 +998,28 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>29.40368576137442</v>
+        <v>28.23155198399612</v>
       </c>
       <c r="E3">
-        <v>-31</v>
+        <v>-14.25</v>
       </c>
       <c r="F3">
-        <v>39.20491434849923</v>
+        <v>44.17611507916688</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>19.60245717424961</v>
+        <v>19.01042978787726</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1421,28 +1027,25 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4">
-        <v>56.31024322029666</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>-31</v>
+        <v>-36.5</v>
       </c>
       <c r="F4">
-        <v>56.31024322029666</v>
+        <v>-999</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>56.31024322029666</v>
+        <v>999</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1450,28 +1053,28 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>-466.5379064076312</v>
+        <v>66.81484441336596</v>
       </c>
       <c r="E5">
-        <v>-36.8</v>
+        <v>-21.5</v>
       </c>
       <c r="F5">
-        <v>65.92418718473755</v>
+        <v>67.54907347285351</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>-999</v>
+        <v>66.08061535387843</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1479,115 +1082,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>62.92763322179493</v>
+        <v>66.34575362536005</v>
       </c>
       <c r="E6">
-        <v>-32.33333333333334</v>
+        <v>-5.333333333333333</v>
       </c>
       <c r="F6">
-        <v>62.92763322179493</v>
+        <v>69.01753159182859</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>62.92763322179493</v>
+        <v>64.61215723490335</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7">
-        <v>64.55076661838885</v>
-      </c>
-      <c r="E7">
-        <v>0.75</v>
-      </c>
-      <c r="F7">
-        <v>66.04904359986016</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7">
-        <v>62.92763322179493</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8">
-        <v>62.74034859911101</v>
-      </c>
-      <c r="E8">
-        <v>10.16666666666667</v>
-      </c>
-      <c r="F8">
-        <v>65.67447435449233</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8">
-        <v>59.30679718323928</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9">
-        <v>14.21282192145699</v>
-      </c>
-      <c r="E9">
-        <v>10.33333333333333</v>
-      </c>
-      <c r="F9">
-        <v>15.35733906008091</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9">
-        <v>12.23592868201568</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
